--- a/output/StructureDefinition-PADI-ConsentForHealthcareAgent.xlsx
+++ b/output/StructureDefinition-PADI-ConsentForHealthcareAgent.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="318">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2020" uniqueCount="319">
   <si>
     <t>Path</t>
   </si>
@@ -474,7 +474,7 @@
     <t>Consent.patient</t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Patient)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/core/StructureDefinition/us-core-patient)
 </t>
   </si>
   <si>
@@ -531,7 +531,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">Reference(Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
+    <t xml:space="preserve">Reference(http://hl7.org/fhir/us/pacio-adi/StructureDefinition/PADI-HealthcareAgent)
 </t>
   </si>
   <si>
@@ -683,6 +683,14 @@
     <t>Might be a unique identifier of a policy set in XACML, or other rules engine.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://loinc.org"/&gt;
+    &lt;code value="75786-4"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>Regulatory policy examples.</t>
   </si>
   <si>
@@ -818,6 +826,14 @@
     <t>How the individual is involved in the resources content that is described in the exception.</t>
   </si>
   <si>
+    <t>&lt;valueCodeableConcept xmlns="http://hl7.org/fhir"&gt;
+  &lt;coding&gt;
+    &lt;system value="http://terminology.hl7.org/CodeSystem/v3-RoleClass"/&gt;
+    &lt;code value="AGNT"/&gt;
+  &lt;/coding&gt;
+&lt;/valueCodeableConcept&gt;</t>
+  </si>
+  <si>
     <t>How an actor is involved in the consent considerations.</t>
   </si>
   <si>
@@ -825,10 +841,6 @@
   </si>
   <si>
     <t>Consent.provision.actor.reference</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Reference(Device|Group|CareTeam|Organization|Patient|Practitioner|RelatedPerson|PractitionerRole)
-</t>
   </si>
   <si>
     <t>Resource for the actor (or group, by role)</t>
@@ -1875,7 +1887,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="7" hidden="true">
+    <row r="7">
       <c r="A7" t="s" s="2">
         <v>79</v>
       </c>
@@ -1885,13 +1897,13 @@
       </c>
       <c r="D7" s="2"/>
       <c r="E7" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F7" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G7" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H7" t="s" s="2">
         <v>40</v>
@@ -2763,7 +2775,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="15" hidden="true">
+    <row r="15">
       <c r="A15" t="s" s="2">
         <v>145</v>
       </c>
@@ -2773,13 +2785,13 @@
       </c>
       <c r="D15" s="2"/>
       <c r="E15" t="s" s="2">
-        <v>41</v>
+        <v>51</v>
       </c>
       <c r="F15" t="s" s="2">
         <v>51</v>
       </c>
       <c r="G15" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H15" t="s" s="2">
         <v>40</v>
@@ -2874,7 +2886,7 @@
         <v>152</v>
       </c>
     </row>
-    <row r="16" hidden="true">
+    <row r="16">
       <c r="A16" t="s" s="2">
         <v>153</v>
       </c>
@@ -2890,7 +2902,7 @@
         <v>51</v>
       </c>
       <c r="G16" t="s" s="2">
-        <v>40</v>
+        <v>52</v>
       </c>
       <c r="H16" t="s" s="2">
         <v>40</v>
@@ -4025,7 +4037,7 @@
         <v>40</v>
       </c>
       <c r="R26" t="s" s="2">
-        <v>40</v>
+        <v>212</v>
       </c>
       <c r="S26" t="s" s="2">
         <v>40</v>
@@ -4043,10 +4055,10 @@
         <v>133</v>
       </c>
       <c r="X26" t="s" s="2">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Y26" t="s" s="2">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Z26" t="s" s="2">
         <v>40</v>
@@ -4093,7 +4105,7 @@
     </row>
     <row r="27" hidden="true">
       <c r="A27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="B27" s="2"/>
       <c r="C27" t="s" s="2">
@@ -4119,10 +4131,10 @@
         <v>184</v>
       </c>
       <c r="K27" t="s" s="2">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="L27" t="s" s="2">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="M27" s="2"/>
       <c r="N27" s="2"/>
@@ -4173,7 +4185,7 @@
         <v>40</v>
       </c>
       <c r="AE27" t="s" s="2">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="AF27" t="s" s="2">
         <v>41</v>
@@ -4202,7 +4214,7 @@
     </row>
     <row r="28" hidden="true">
       <c r="A28" t="s" s="2">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="B28" s="2"/>
       <c r="C28" t="s" s="2">
@@ -4311,7 +4323,7 @@
     </row>
     <row r="29" hidden="true">
       <c r="A29" t="s" s="2">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="B29" s="2"/>
       <c r="C29" t="s" s="2">
@@ -4422,7 +4434,7 @@
     </row>
     <row r="30" hidden="true">
       <c r="A30" t="s" s="2">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="B30" s="2"/>
       <c r="C30" t="s" s="2">
@@ -4535,7 +4547,7 @@
     </row>
     <row r="31" hidden="true">
       <c r="A31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="B31" s="2"/>
       <c r="C31" t="s" s="2">
@@ -4558,13 +4570,13 @@
         <v>52</v>
       </c>
       <c r="J31" t="s" s="2">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="K31" t="s" s="2">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="L31" t="s" s="2">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="M31" s="2"/>
       <c r="N31" s="2"/>
@@ -4615,7 +4627,7 @@
         <v>40</v>
       </c>
       <c r="AE31" t="s" s="2">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="AF31" t="s" s="2">
         <v>51</v>
@@ -4644,7 +4656,7 @@
     </row>
     <row r="32" hidden="true">
       <c r="A32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="B32" s="2"/>
       <c r="C32" t="s" s="2">
@@ -4667,13 +4679,13 @@
         <v>40</v>
       </c>
       <c r="J32" t="s" s="2">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="K32" t="s" s="2">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="L32" t="s" s="2">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="M32" s="2"/>
       <c r="N32" s="2"/>
@@ -4724,7 +4736,7 @@
         <v>40</v>
       </c>
       <c r="AE32" t="s" s="2">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="AF32" t="s" s="2">
         <v>41</v>
@@ -4753,7 +4765,7 @@
     </row>
     <row r="33" hidden="true">
       <c r="A33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="B33" s="2"/>
       <c r="C33" t="s" s="2">
@@ -4779,10 +4791,10 @@
         <v>154</v>
       </c>
       <c r="K33" t="s" s="2">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="L33" t="s" s="2">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="M33" s="2"/>
       <c r="N33" s="2"/>
@@ -4833,7 +4845,7 @@
         <v>40</v>
       </c>
       <c r="AE33" t="s" s="2">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="AF33" t="s" s="2">
         <v>41</v>
@@ -4862,7 +4874,7 @@
     </row>
     <row r="34" hidden="true">
       <c r="A34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="B34" s="2"/>
       <c r="C34" t="s" s="2">
@@ -4888,10 +4900,10 @@
         <v>184</v>
       </c>
       <c r="K34" t="s" s="2">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="L34" t="s" s="2">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="M34" s="2"/>
       <c r="N34" s="2"/>
@@ -4942,7 +4954,7 @@
         <v>40</v>
       </c>
       <c r="AE34" t="s" s="2">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="AF34" t="s" s="2">
         <v>41</v>
@@ -4971,7 +4983,7 @@
     </row>
     <row r="35" hidden="true">
       <c r="A35" t="s" s="2">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="B35" s="2"/>
       <c r="C35" t="s" s="2">
@@ -5080,7 +5092,7 @@
     </row>
     <row r="36" hidden="true">
       <c r="A36" t="s" s="2">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="B36" s="2"/>
       <c r="C36" t="s" s="2">
@@ -5191,7 +5203,7 @@
     </row>
     <row r="37" hidden="true">
       <c r="A37" t="s" s="2">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="B37" s="2"/>
       <c r="C37" t="s" s="2">
@@ -5304,7 +5316,7 @@
     </row>
     <row r="38" hidden="true">
       <c r="A38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="B38" s="2"/>
       <c r="C38" t="s" s="2">
@@ -5330,10 +5342,10 @@
         <v>71</v>
       </c>
       <c r="K38" t="s" s="2">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="L38" t="s" s="2">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="M38" s="2"/>
       <c r="N38" s="2"/>
@@ -5363,10 +5375,10 @@
         <v>122</v>
       </c>
       <c r="X38" t="s" s="2">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Y38" t="s" s="2">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Z38" t="s" s="2">
         <v>40</v>
@@ -5384,7 +5396,7 @@
         <v>40</v>
       </c>
       <c r="AE38" t="s" s="2">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="AF38" t="s" s="2">
         <v>41</v>
@@ -5413,7 +5425,7 @@
     </row>
     <row r="39" hidden="true">
       <c r="A39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="B39" s="2"/>
       <c r="C39" t="s" s="2">
@@ -5436,13 +5448,13 @@
         <v>52</v>
       </c>
       <c r="J39" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K39" t="s" s="2">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="L39" t="s" s="2">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="M39" s="2"/>
       <c r="N39" s="2"/>
@@ -5493,7 +5505,7 @@
         <v>40</v>
       </c>
       <c r="AE39" t="s" s="2">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="AF39" t="s" s="2">
         <v>41</v>
@@ -5522,7 +5534,7 @@
     </row>
     <row r="40" hidden="true">
       <c r="A40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="B40" s="2"/>
       <c r="C40" t="s" s="2">
@@ -5548,10 +5560,10 @@
         <v>184</v>
       </c>
       <c r="K40" t="s" s="2">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="L40" t="s" s="2">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="M40" s="2"/>
       <c r="N40" s="2"/>
@@ -5559,7 +5571,7 @@
         <v>40</v>
       </c>
       <c r="P40" t="s" s="2">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q40" t="s" s="2">
         <v>40</v>
@@ -5604,7 +5616,7 @@
         <v>40</v>
       </c>
       <c r="AE40" t="s" s="2">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="AF40" t="s" s="2">
         <v>41</v>
@@ -5633,7 +5645,7 @@
     </row>
     <row r="41" hidden="true">
       <c r="A41" t="s" s="2">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="B41" s="2"/>
       <c r="C41" t="s" s="2">
@@ -5742,7 +5754,7 @@
     </row>
     <row r="42" hidden="true">
       <c r="A42" t="s" s="2">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="B42" s="2"/>
       <c r="C42" t="s" s="2">
@@ -5853,7 +5865,7 @@
     </row>
     <row r="43" hidden="true">
       <c r="A43" t="s" s="2">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="B43" s="2"/>
       <c r="C43" t="s" s="2">
@@ -5966,7 +5978,7 @@
     </row>
     <row r="44" hidden="true">
       <c r="A44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="B44" s="2"/>
       <c r="C44" t="s" s="2">
@@ -5992,10 +6004,10 @@
         <v>130</v>
       </c>
       <c r="K44" t="s" s="2">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="L44" t="s" s="2">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="M44" s="2"/>
       <c r="N44" s="2"/>
@@ -6007,7 +6019,7 @@
         <v>40</v>
       </c>
       <c r="R44" t="s" s="2">
-        <v>40</v>
+        <v>257</v>
       </c>
       <c r="S44" t="s" s="2">
         <v>40</v>
@@ -6025,10 +6037,10 @@
         <v>133</v>
       </c>
       <c r="X44" t="s" s="2">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Y44" t="s" s="2">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="Z44" t="s" s="2">
         <v>40</v>
@@ -6046,7 +6058,7 @@
         <v>40</v>
       </c>
       <c r="AE44" t="s" s="2">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="AF44" t="s" s="2">
         <v>51</v>
@@ -6075,7 +6087,7 @@
     </row>
     <row r="45" hidden="true">
       <c r="A45" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="B45" s="2"/>
       <c r="C45" t="s" s="2">
@@ -6098,13 +6110,13 @@
         <v>40</v>
       </c>
       <c r="J45" t="s" s="2">
-        <v>259</v>
+        <v>164</v>
       </c>
       <c r="K45" t="s" s="2">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="L45" t="s" s="2">
-        <v>261</v>
+        <v>262</v>
       </c>
       <c r="M45" s="2"/>
       <c r="N45" s="2"/>
@@ -6155,7 +6167,7 @@
         <v>40</v>
       </c>
       <c r="AE45" t="s" s="2">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="AF45" t="s" s="2">
         <v>51</v>
@@ -6184,7 +6196,7 @@
     </row>
     <row r="46" hidden="true">
       <c r="A46" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="B46" s="2"/>
       <c r="C46" t="s" s="2">
@@ -6210,20 +6222,20 @@
         <v>130</v>
       </c>
       <c r="K46" t="s" s="2">
-        <v>263</v>
+        <v>264</v>
       </c>
       <c r="L46" t="s" s="2">
-        <v>264</v>
+        <v>265</v>
       </c>
       <c r="M46" t="s" s="2">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="N46" s="2"/>
       <c r="O46" t="s" s="2">
         <v>40</v>
       </c>
       <c r="P46" t="s" s="2">
-        <v>266</v>
+        <v>267</v>
       </c>
       <c r="Q46" t="s" s="2">
         <v>40</v>
@@ -6244,13 +6256,13 @@
         <v>40</v>
       </c>
       <c r="W46" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X46" t="s" s="2">
-        <v>268</v>
+        <v>269</v>
       </c>
       <c r="Y46" t="s" s="2">
-        <v>269</v>
+        <v>270</v>
       </c>
       <c r="Z46" t="s" s="2">
         <v>40</v>
@@ -6268,7 +6280,7 @@
         <v>40</v>
       </c>
       <c r="AE46" t="s" s="2">
-        <v>262</v>
+        <v>263</v>
       </c>
       <c r="AF46" t="s" s="2">
         <v>41</v>
@@ -6297,7 +6309,7 @@
     </row>
     <row r="47" hidden="true">
       <c r="A47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="B47" s="2"/>
       <c r="C47" t="s" s="2">
@@ -6320,16 +6332,16 @@
         <v>52</v>
       </c>
       <c r="J47" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K47" t="s" s="2">
-        <v>272</v>
+        <v>273</v>
       </c>
       <c r="L47" t="s" s="2">
-        <v>273</v>
+        <v>274</v>
       </c>
       <c r="M47" t="s" s="2">
-        <v>274</v>
+        <v>275</v>
       </c>
       <c r="N47" s="2"/>
       <c r="O47" t="s" s="2">
@@ -6358,10 +6370,10 @@
         <v>133</v>
       </c>
       <c r="X47" t="s" s="2">
-        <v>275</v>
+        <v>276</v>
       </c>
       <c r="Y47" t="s" s="2">
-        <v>276</v>
+        <v>277</v>
       </c>
       <c r="Z47" t="s" s="2">
         <v>40</v>
@@ -6379,7 +6391,7 @@
         <v>40</v>
       </c>
       <c r="AE47" t="s" s="2">
-        <v>270</v>
+        <v>271</v>
       </c>
       <c r="AF47" t="s" s="2">
         <v>41</v>
@@ -6408,7 +6420,7 @@
     </row>
     <row r="48" hidden="true">
       <c r="A48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="B48" s="2"/>
       <c r="C48" t="s" s="2">
@@ -6431,16 +6443,16 @@
         <v>52</v>
       </c>
       <c r="J48" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K48" t="s" s="2">
-        <v>278</v>
+        <v>279</v>
       </c>
       <c r="L48" t="s" s="2">
-        <v>279</v>
+        <v>280</v>
       </c>
       <c r="M48" t="s" s="2">
-        <v>280</v>
+        <v>281</v>
       </c>
       <c r="N48" s="2"/>
       <c r="O48" t="s" s="2">
@@ -6469,10 +6481,10 @@
         <v>133</v>
       </c>
       <c r="X48" t="s" s="2">
-        <v>281</v>
+        <v>282</v>
       </c>
       <c r="Y48" t="s" s="2">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="Z48" t="s" s="2">
         <v>40</v>
@@ -6490,7 +6502,7 @@
         <v>40</v>
       </c>
       <c r="AE48" t="s" s="2">
-        <v>277</v>
+        <v>278</v>
       </c>
       <c r="AF48" t="s" s="2">
         <v>41</v>
@@ -6519,7 +6531,7 @@
     </row>
     <row r="49" hidden="true">
       <c r="A49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="B49" s="2"/>
       <c r="C49" t="s" s="2">
@@ -6542,16 +6554,16 @@
         <v>52</v>
       </c>
       <c r="J49" t="s" s="2">
-        <v>271</v>
+        <v>272</v>
       </c>
       <c r="K49" t="s" s="2">
-        <v>284</v>
+        <v>285</v>
       </c>
       <c r="L49" t="s" s="2">
-        <v>285</v>
+        <v>286</v>
       </c>
       <c r="M49" t="s" s="2">
-        <v>286</v>
+        <v>287</v>
       </c>
       <c r="N49" s="2"/>
       <c r="O49" t="s" s="2">
@@ -6580,10 +6592,10 @@
         <v>133</v>
       </c>
       <c r="X49" t="s" s="2">
-        <v>287</v>
+        <v>288</v>
       </c>
       <c r="Y49" t="s" s="2">
-        <v>288</v>
+        <v>289</v>
       </c>
       <c r="Z49" t="s" s="2">
         <v>40</v>
@@ -6601,7 +6613,7 @@
         <v>40</v>
       </c>
       <c r="AE49" t="s" s="2">
-        <v>283</v>
+        <v>284</v>
       </c>
       <c r="AF49" t="s" s="2">
         <v>41</v>
@@ -6630,7 +6642,7 @@
     </row>
     <row r="50" hidden="true">
       <c r="A50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="B50" s="2"/>
       <c r="C50" t="s" s="2">
@@ -6656,13 +6668,13 @@
         <v>130</v>
       </c>
       <c r="K50" t="s" s="2">
-        <v>290</v>
+        <v>291</v>
       </c>
       <c r="L50" t="s" s="2">
-        <v>291</v>
+        <v>292</v>
       </c>
       <c r="M50" t="s" s="2">
-        <v>292</v>
+        <v>293</v>
       </c>
       <c r="N50" s="2"/>
       <c r="O50" t="s" s="2">
@@ -6688,13 +6700,13 @@
         <v>40</v>
       </c>
       <c r="W50" t="s" s="2">
-        <v>267</v>
+        <v>268</v>
       </c>
       <c r="X50" t="s" s="2">
-        <v>293</v>
+        <v>294</v>
       </c>
       <c r="Y50" t="s" s="2">
-        <v>294</v>
+        <v>295</v>
       </c>
       <c r="Z50" t="s" s="2">
         <v>40</v>
@@ -6712,7 +6724,7 @@
         <v>40</v>
       </c>
       <c r="AE50" t="s" s="2">
-        <v>289</v>
+        <v>290</v>
       </c>
       <c r="AF50" t="s" s="2">
         <v>41</v>
@@ -6741,7 +6753,7 @@
     </row>
     <row r="51" hidden="true">
       <c r="A51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="B51" s="2"/>
       <c r="C51" t="s" s="2">
@@ -6764,16 +6776,16 @@
         <v>52</v>
       </c>
       <c r="J51" t="s" s="2">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="K51" t="s" s="2">
-        <v>296</v>
+        <v>297</v>
       </c>
       <c r="L51" t="s" s="2">
-        <v>297</v>
+        <v>298</v>
       </c>
       <c r="M51" t="s" s="2">
-        <v>298</v>
+        <v>299</v>
       </c>
       <c r="N51" s="2"/>
       <c r="O51" t="s" s="2">
@@ -6823,7 +6835,7 @@
         <v>40</v>
       </c>
       <c r="AE51" t="s" s="2">
-        <v>295</v>
+        <v>296</v>
       </c>
       <c r="AF51" t="s" s="2">
         <v>41</v>
@@ -6852,7 +6864,7 @@
     </row>
     <row r="52" hidden="true">
       <c r="A52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="B52" s="2"/>
       <c r="C52" t="s" s="2">
@@ -6878,10 +6890,10 @@
         <v>184</v>
       </c>
       <c r="K52" t="s" s="2">
-        <v>300</v>
+        <v>301</v>
       </c>
       <c r="L52" t="s" s="2">
-        <v>301</v>
+        <v>302</v>
       </c>
       <c r="M52" s="2"/>
       <c r="N52" s="2"/>
@@ -6889,7 +6901,7 @@
         <v>40</v>
       </c>
       <c r="P52" t="s" s="2">
-        <v>302</v>
+        <v>303</v>
       </c>
       <c r="Q52" t="s" s="2">
         <v>40</v>
@@ -6934,7 +6946,7 @@
         <v>40</v>
       </c>
       <c r="AE52" t="s" s="2">
-        <v>299</v>
+        <v>300</v>
       </c>
       <c r="AF52" t="s" s="2">
         <v>41</v>
@@ -6963,7 +6975,7 @@
     </row>
     <row r="53" hidden="true">
       <c r="A53" t="s" s="2">
-        <v>303</v>
+        <v>304</v>
       </c>
       <c r="B53" s="2"/>
       <c r="C53" t="s" s="2">
@@ -7072,7 +7084,7 @@
     </row>
     <row r="54" hidden="true">
       <c r="A54" t="s" s="2">
-        <v>304</v>
+        <v>305</v>
       </c>
       <c r="B54" s="2"/>
       <c r="C54" t="s" s="2">
@@ -7183,7 +7195,7 @@
     </row>
     <row r="55" hidden="true">
       <c r="A55" t="s" s="2">
-        <v>305</v>
+        <v>306</v>
       </c>
       <c r="B55" s="2"/>
       <c r="C55" t="s" s="2">
@@ -7296,7 +7308,7 @@
     </row>
     <row r="56" hidden="true">
       <c r="A56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="B56" s="2"/>
       <c r="C56" t="s" s="2">
@@ -7322,10 +7334,10 @@
         <v>71</v>
       </c>
       <c r="K56" t="s" s="2">
-        <v>307</v>
+        <v>308</v>
       </c>
       <c r="L56" t="s" s="2">
-        <v>308</v>
+        <v>309</v>
       </c>
       <c r="M56" s="2"/>
       <c r="N56" s="2"/>
@@ -7355,10 +7367,10 @@
         <v>122</v>
       </c>
       <c r="X56" t="s" s="2">
-        <v>309</v>
+        <v>310</v>
       </c>
       <c r="Y56" t="s" s="2">
-        <v>310</v>
+        <v>311</v>
       </c>
       <c r="Z56" t="s" s="2">
         <v>40</v>
@@ -7376,7 +7388,7 @@
         <v>40</v>
       </c>
       <c r="AE56" t="s" s="2">
-        <v>306</v>
+        <v>307</v>
       </c>
       <c r="AF56" t="s" s="2">
         <v>51</v>
@@ -7405,7 +7417,7 @@
     </row>
     <row r="57" hidden="true">
       <c r="A57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="B57" s="2"/>
       <c r="C57" t="s" s="2">
@@ -7428,13 +7440,13 @@
         <v>52</v>
       </c>
       <c r="J57" t="s" s="2">
-        <v>312</v>
+        <v>313</v>
       </c>
       <c r="K57" t="s" s="2">
-        <v>313</v>
+        <v>314</v>
       </c>
       <c r="L57" t="s" s="2">
-        <v>314</v>
+        <v>315</v>
       </c>
       <c r="M57" s="2"/>
       <c r="N57" s="2"/>
@@ -7485,7 +7497,7 @@
         <v>40</v>
       </c>
       <c r="AE57" t="s" s="2">
-        <v>311</v>
+        <v>312</v>
       </c>
       <c r="AF57" t="s" s="2">
         <v>51</v>
@@ -7514,7 +7526,7 @@
     </row>
     <row r="58" hidden="true">
       <c r="A58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="B58" s="2"/>
       <c r="C58" t="s" s="2">
@@ -7540,10 +7552,10 @@
         <v>40</v>
       </c>
       <c r="K58" t="s" s="2">
-        <v>316</v>
+        <v>317</v>
       </c>
       <c r="L58" t="s" s="2">
-        <v>317</v>
+        <v>318</v>
       </c>
       <c r="M58" s="2"/>
       <c r="N58" s="2"/>
@@ -7594,7 +7606,7 @@
         <v>40</v>
       </c>
       <c r="AE58" t="s" s="2">
-        <v>315</v>
+        <v>316</v>
       </c>
       <c r="AF58" t="s" s="2">
         <v>41</v>

--- a/output/StructureDefinition-PADI-ConsentForHealthcareAgent.xlsx
+++ b/output/StructureDefinition-PADI-ConsentForHealthcareAgent.xlsx
@@ -1174,45 +1174,45 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
   <cols>
-    <col min="1" max="1" width="39.26171875" customWidth="true" bestFit="true"/>
-    <col min="2" max="2" width="11.1328125" customWidth="true" bestFit="true"/>
-    <col min="3" max="3" width="38.81640625" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="4" max="4" width="5.8984375" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="5" max="5" width="4.69921875" customWidth="true" bestFit="true"/>
-    <col min="6" max="6" width="5.07421875" customWidth="true" bestFit="true"/>
-    <col min="7" max="7" width="14.625" customWidth="true" bestFit="true"/>
-    <col min="8" max="8" width="11.98828125" customWidth="true" bestFit="true"/>
-    <col min="9" max="9" width="12.74609375" customWidth="true" bestFit="true"/>
+    <col min="1" max="1" width="39.03515625" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="11.34765625" customWidth="true" bestFit="true"/>
+    <col min="3" max="3" width="38.45703125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="4" max="4" width="6.14453125" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="5" max="5" width="4.58203125" customWidth="true" bestFit="true"/>
+    <col min="6" max="6" width="4.94140625" customWidth="true" bestFit="true"/>
+    <col min="7" max="7" width="14.70703125" customWidth="true" bestFit="true"/>
+    <col min="8" max="8" width="12.1875" customWidth="true" bestFit="true"/>
+    <col min="9" max="9" width="13.0625" customWidth="true" bestFit="true"/>
     <col min="10" max="10" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="11" max="11" width="117.65234375" customWidth="true" bestFit="true"/>
+    <col min="11" max="11" width="117.8046875" customWidth="true" bestFit="true"/>
     <col min="12" max="12" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="13" max="13" width="100.703125" customWidth="true" bestFit="true"/>
     <col min="14" max="14" width="100.703125" customWidth="true" bestFit="true"/>
-    <col min="15" max="15" width="13.52734375" customWidth="true" bestFit="true"/>
+    <col min="15" max="15" width="13.86328125" customWidth="true" bestFit="true"/>
     <col min="16" max="16" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="17" max="17" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="18" max="18" width="20.703125" customWidth="true" bestFit="true"/>
     <col min="19" max="19" width="20.703125" customWidth="true" bestFit="true"/>
-    <col min="20" max="20" width="15.7109375" customWidth="true" bestFit="true"/>
-    <col min="21" max="21" width="16.0859375" customWidth="true" bestFit="true"/>
-    <col min="22" max="22" width="17.078125" customWidth="true" bestFit="true"/>
-    <col min="23" max="23" width="16.30859375" customWidth="true" bestFit="true"/>
-    <col min="24" max="24" width="121.80078125" customWidth="true" bestFit="true"/>
-    <col min="25" max="25" width="53.10546875" customWidth="true" bestFit="true"/>
-    <col min="26" max="26" width="5.69140625" customWidth="true" bestFit="true"/>
-    <col min="27" max="27" width="19.73046875" customWidth="true" bestFit="true"/>
-    <col min="28" max="28" width="17.8203125" customWidth="true" bestFit="true"/>
-    <col min="29" max="29" width="14.984375" customWidth="true" bestFit="true"/>
-    <col min="30" max="30" width="12.30078125" customWidth="true" bestFit="true"/>
-    <col min="31" max="31" width="34.0703125" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="32" max="32" width="9.5" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="33" max="33" width="9.875" customWidth="true" bestFit="true" hidden="true"/>
-    <col min="34" max="34" width="12.21875" customWidth="true" bestFit="true"/>
+    <col min="20" max="20" width="15.7734375" customWidth="true" bestFit="true"/>
+    <col min="21" max="21" width="16.1328125" customWidth="true" bestFit="true"/>
+    <col min="22" max="22" width="17.40234375" customWidth="true" bestFit="true"/>
+    <col min="23" max="23" width="16.95703125" customWidth="true" bestFit="true"/>
+    <col min="24" max="24" width="121.84375" customWidth="true" bestFit="true"/>
+    <col min="25" max="25" width="53.6875" customWidth="true" bestFit="true"/>
+    <col min="26" max="26" width="5.8828125" customWidth="true" bestFit="true"/>
+    <col min="27" max="27" width="20.83984375" customWidth="true" bestFit="true"/>
+    <col min="28" max="28" width="18.84375" customWidth="true" bestFit="true"/>
+    <col min="29" max="29" width="15.69921875" customWidth="true" bestFit="true"/>
+    <col min="30" max="30" width="13.12109375" customWidth="true" bestFit="true"/>
+    <col min="31" max="31" width="33.4296875" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="32" max="32" width="9.52734375" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="33" max="33" width="9.890625" customWidth="true" bestFit="true" hidden="true"/>
+    <col min="34" max="34" width="12.71875" customWidth="true" bestFit="true"/>
     <col min="35" max="35" width="100.703125" customWidth="true"/>
-    <col min="36" max="36" width="26.71484375" customWidth="true" bestFit="true"/>
-    <col min="37" max="37" width="45.61328125" customWidth="true" bestFit="true"/>
-    <col min="38" max="38" width="28.96484375" customWidth="true" bestFit="true"/>
-    <col min="39" max="39" width="32.84375" customWidth="true" bestFit="true"/>
+    <col min="36" max="36" width="26.6875" customWidth="true" bestFit="true"/>
+    <col min="37" max="37" width="45.09375" customWidth="true" bestFit="true"/>
+    <col min="38" max="38" width="28.68359375" customWidth="true" bestFit="true"/>
+    <col min="39" max="39" width="33.046875" customWidth="true" bestFit="true"/>
   </cols>
   <sheetData>
     <row r="1">
